--- a/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F14_dim10.xlsx
+++ b/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F14_dim10.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -190,7 +189,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,14 +224,15 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -517,18 +521,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:BA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">

--- a/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F14_dim10.xlsx
+++ b/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F14_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>273783695.1943033</v>
       </c>
       <c r="AZ2" t="n">
-        <v>582472505.399292</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>302502321.0021269</v>
+        <v>296902917.3141836</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>141862543.4739021</v>
@@ -1011,15 +1002,12 @@
         <v>36250282.1761086</v>
       </c>
       <c r="AZ3" t="n">
-        <v>127119784.4767042</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>154651117.9595235</v>
+        <v>155201744.6291799</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>26</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>6756858.26109803</v>
@@ -1033,7 +1021,9 @@
       <c r="E4" t="n">
         <v>15318136.69437888</v>
       </c>
-      <c r="F4" t="s"/>
+      <c r="F4" t="n">
+        <v>30065848.0479557</v>
+      </c>
       <c r="G4" t="n">
         <v>15220688.18635207</v>
       </c>
@@ -1052,7 +1042,9 @@
       <c r="L4" t="n">
         <v>4081056.64368952</v>
       </c>
-      <c r="M4" t="s"/>
+      <c r="M4" t="n">
+        <v>16723003.97715721</v>
+      </c>
       <c r="N4" t="n">
         <v>23906416.01427659</v>
       </c>
@@ -1074,7 +1066,9 @@
       <c r="T4" t="n">
         <v>46721348.55731299</v>
       </c>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>15310683.37330258</v>
+      </c>
       <c r="V4" t="n">
         <v>4691963.35016596</v>
       </c>
@@ -1099,7 +1093,9 @@
       <c r="AC4" t="n">
         <v>25634152.17979679</v>
       </c>
-      <c r="AD4" t="s"/>
+      <c r="AD4" t="n">
+        <v>27896898.05932348</v>
+      </c>
       <c r="AE4" t="n">
         <v>60011757.09276074</v>
       </c>
@@ -1112,7 +1108,9 @@
       <c r="AH4" t="n">
         <v>40628150.4475379</v>
       </c>
-      <c r="AI4" t="s"/>
+      <c r="AI4" t="n">
+        <v>47498389.35050204</v>
+      </c>
       <c r="AJ4" t="n">
         <v>35875131.29564314</v>
       </c>
@@ -1137,8 +1135,12 @@
       <c r="AQ4" t="n">
         <v>16541453.19997869</v>
       </c>
-      <c r="AR4" t="s"/>
-      <c r="AS4" t="s"/>
+      <c r="AR4" t="n">
+        <v>22261155.10589996</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>9779869.41428335</v>
+      </c>
       <c r="AT4" t="n">
         <v>23668380.33192645</v>
       </c>
@@ -1148,680 +1150,1597 @@
       <c r="AV4" t="n">
         <v>45055330.53009182</v>
       </c>
-      <c r="AW4" t="s"/>
+      <c r="AW4" t="n">
+        <v>18812188.66110139</v>
+      </c>
       <c r="AX4" t="n">
         <v>19602085.23378148</v>
       </c>
       <c r="AY4" t="n">
         <v>19355539.26456195</v>
       </c>
-      <c r="AZ4" t="s"/>
-      <c r="BA4" t="n">
-        <v>22704471.95916954</v>
+      <c r="AZ4" t="n">
+        <v>22838717.16549293</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>257</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>1063247.34382732</v>
       </c>
-      <c r="C5" t="s"/>
+      <c r="C5" t="n">
+        <v>695672.55366491</v>
+      </c>
       <c r="D5" t="n">
         <v>1186410.57623585</v>
       </c>
       <c r="E5" t="n">
         <v>934068.2842124701</v>
       </c>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
+      <c r="F5" t="n">
+        <v>1093000.76412588</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2295431.82531329</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1279501.94053112</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1472658.94662404</v>
+      </c>
       <c r="J5" t="n">
         <v>215803.30463014</v>
       </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
+      <c r="K5" t="n">
+        <v>767949.0389154101</v>
+      </c>
+      <c r="L5" t="n">
+        <v>542037.20431175</v>
+      </c>
+      <c r="M5" t="n">
+        <v>845880.69906806</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1479578.09172896</v>
+      </c>
       <c r="O5" t="n">
         <v>958016.91572588</v>
       </c>
       <c r="P5" t="n">
         <v>1547346.59908211</v>
       </c>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2054135.55434003</v>
+      </c>
       <c r="R5" t="n">
         <v>4088024.28200728</v>
       </c>
       <c r="S5" t="n">
         <v>1225678.09360916</v>
       </c>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="s"/>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
-      <c r="Z5" t="s"/>
-      <c r="AA5" t="s"/>
-      <c r="AB5" t="s"/>
-      <c r="AC5" t="s"/>
-      <c r="AD5" t="s"/>
-      <c r="AE5" t="s"/>
-      <c r="AF5" t="s"/>
-      <c r="AG5" t="s"/>
-      <c r="AH5" t="s"/>
-      <c r="AI5" t="s"/>
+      <c r="T5" t="n">
+        <v>3007236.70774174</v>
+      </c>
+      <c r="U5" t="n">
+        <v>774428.62919796</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1895509.620089</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1954607.76750658</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1065485.37696677</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1123888.81025836</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1950724.85874547</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>617715.31209457</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2326748.84132344</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1557598.63997367</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>972566.82348906</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>735389.80949939</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2529270.89737276</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>376774.92494546</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1388490.34474793</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>4602477.03549556</v>
+      </c>
       <c r="AJ5" t="n">
         <v>488090.34835434</v>
       </c>
-      <c r="AK5" t="s"/>
-      <c r="AL5" t="s"/>
-      <c r="AM5" t="s"/>
-      <c r="AN5" t="s"/>
-      <c r="AO5" t="s"/>
-      <c r="AP5" t="s"/>
-      <c r="AQ5" t="s"/>
-      <c r="AR5" t="s"/>
-      <c r="AS5" t="s"/>
+      <c r="AK5" t="n">
+        <v>1722961.97705724</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>494672.74271347</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1289662.78032956</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1263741.36338399</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1855213.03727146</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>977061.81833225</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>892800.4287314001</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>2358030.40832377</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>740894.55649766</v>
+      </c>
       <c r="AT5" t="n">
         <v>1432063.09466536</v>
       </c>
-      <c r="AU5" t="s"/>
-      <c r="AV5" t="s"/>
-      <c r="AW5" t="s"/>
+      <c r="AU5" t="n">
+        <v>2245305.12325484</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1856841.99622685</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>412271.4198454</v>
+      </c>
       <c r="AX5" t="n">
         <v>521185.41164945</v>
       </c>
-      <c r="AY5" t="s"/>
-      <c r="AZ5" t="s"/>
-      <c r="BA5" t="n">
-        <v>1241812.20490903</v>
+      <c r="AY5" t="n">
+        <v>2624740.74944473</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1435977.87346966</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>514</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>274529.40113009</v>
       </c>
-      <c r="C6" t="s"/>
+      <c r="C6" t="n">
+        <v>403512.03596109</v>
+      </c>
       <c r="D6" t="n">
         <v>223038.0189784</v>
       </c>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
+      <c r="E6" t="n">
+        <v>211122.10407455</v>
+      </c>
+      <c r="F6" t="n">
+        <v>430555.14275452</v>
+      </c>
+      <c r="G6" t="n">
+        <v>168096.95217946</v>
+      </c>
+      <c r="H6" t="n">
+        <v>396476.55588266</v>
+      </c>
+      <c r="I6" t="n">
+        <v>263360.11774302</v>
+      </c>
       <c r="J6" t="n">
         <v>129785.59903116</v>
       </c>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
+      <c r="K6" t="n">
+        <v>486455.05065742</v>
+      </c>
+      <c r="L6" t="n">
+        <v>416764.92098297</v>
+      </c>
+      <c r="M6" t="n">
+        <v>717711.63635602</v>
+      </c>
+      <c r="N6" t="n">
+        <v>593784.90434315</v>
+      </c>
       <c r="O6" t="n">
         <v>418866.14186031</v>
       </c>
       <c r="P6" t="n">
         <v>416470.33219587</v>
       </c>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="s"/>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
-      <c r="Z6" t="s"/>
-      <c r="AA6" t="s"/>
-      <c r="AB6" t="s"/>
-      <c r="AC6" t="s"/>
-      <c r="AD6" t="s"/>
-      <c r="AE6" t="s"/>
-      <c r="AF6" t="s"/>
-      <c r="AG6" t="s"/>
-      <c r="AH6" t="s"/>
-      <c r="AI6" t="s"/>
+      <c r="Q6" t="n">
+        <v>330835.07193785</v>
+      </c>
+      <c r="R6" t="n">
+        <v>422891.1293269</v>
+      </c>
+      <c r="S6" t="n">
+        <v>407380.38727019</v>
+      </c>
+      <c r="T6" t="n">
+        <v>517958.74785547</v>
+      </c>
+      <c r="U6" t="n">
+        <v>424311.43663106</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1047502.90715125</v>
+      </c>
+      <c r="W6" t="n">
+        <v>740196.40772644</v>
+      </c>
+      <c r="X6" t="n">
+        <v>319882.67960771</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>284979.03566006</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>749899.19539399</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>449403.21329738</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>675679.70180882</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>760345.60641594</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>365788.00665872</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>351390.29032435</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>507822.4098704</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>376774.92494546</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1083890.45686877</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2305022.10998884</v>
+      </c>
       <c r="AJ6" t="n">
         <v>337986.32247292</v>
       </c>
-      <c r="AK6" t="s"/>
-      <c r="AL6" t="s"/>
-      <c r="AM6" t="s"/>
-      <c r="AN6" t="s"/>
-      <c r="AO6" t="s"/>
-      <c r="AP6" t="s"/>
-      <c r="AQ6" t="s"/>
-      <c r="AR6" t="s"/>
-      <c r="AS6" t="s"/>
+      <c r="AK6" t="n">
+        <v>303618.60340158</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>157335.41512697</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>293072.15625855</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>609508.7538110201</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>381444.41959346</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>292020.30110673</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>452682.2921106</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>749221.5721359201</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>194888.45057991</v>
+      </c>
       <c r="AT6" t="n">
         <v>784329.09660888</v>
       </c>
-      <c r="AU6" t="s"/>
-      <c r="AV6" t="s"/>
-      <c r="AW6" t="s"/>
-      <c r="AX6" t="s"/>
-      <c r="AY6" t="s"/>
-      <c r="AZ6" t="s"/>
-      <c r="BA6" t="n">
-        <v>369286.41603966</v>
+      <c r="AU6" t="n">
+        <v>714473.38180904</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>696438.23931983</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>245856.44382853</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>114764.76575673</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>710777.12757307</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>494217.99948728</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>770</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>175644.95195414</v>
       </c>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
+      <c r="C7" t="n">
+        <v>197141.27655116</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22607.96631825</v>
+      </c>
       <c r="E7" t="n">
         <v>115971.07274556</v>
       </c>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
+      <c r="F7" t="n">
+        <v>299984.14758903</v>
+      </c>
+      <c r="G7" t="n">
+        <v>163560.9018756</v>
+      </c>
+      <c r="H7" t="n">
+        <v>209841.48635963</v>
+      </c>
+      <c r="I7" t="n">
+        <v>178361.59955</v>
+      </c>
       <c r="J7" t="n">
         <v>71925.62200435001</v>
       </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="K7" t="n">
+        <v>117855.92625627</v>
+      </c>
+      <c r="L7" t="n">
+        <v>226417.45875921</v>
+      </c>
+      <c r="M7" t="n">
+        <v>194915.15162115</v>
+      </c>
+      <c r="N7" t="n">
+        <v>193683.22802744</v>
+      </c>
+      <c r="O7" t="n">
+        <v>216471.75026133</v>
+      </c>
+      <c r="P7" t="n">
+        <v>211072.153654</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>330835.07193785</v>
+      </c>
       <c r="R7" t="n">
         <v>320938.87766172</v>
       </c>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
-      <c r="V7" t="s"/>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
-      <c r="Z7" t="s"/>
-      <c r="AA7" t="s"/>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
-      <c r="AD7" t="s"/>
-      <c r="AE7" t="s"/>
-      <c r="AF7" t="s"/>
-      <c r="AG7" t="s"/>
-      <c r="AH7" t="s"/>
-      <c r="AI7" t="s"/>
-      <c r="AJ7" t="s"/>
+      <c r="S7" t="n">
+        <v>176625.49382103</v>
+      </c>
+      <c r="T7" t="n">
+        <v>307786.51260459</v>
+      </c>
+      <c r="U7" t="n">
+        <v>208678.97752503</v>
+      </c>
+      <c r="V7" t="n">
+        <v>339525.84785305</v>
+      </c>
+      <c r="W7" t="n">
+        <v>156477.51193132</v>
+      </c>
+      <c r="X7" t="n">
+        <v>235858.06907631</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>149411.32475919</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>135242.76346323</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>319147.2218493</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>247766.51368205</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>544635.61295168</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>226641.48656069</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>269702.08034655</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>218392.26990912</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>45729.08098561</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>695083.54085568</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>317776.77479371</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>178092.35131539</v>
+      </c>
       <c r="AK7" t="n">
         <v>178184.57160815</v>
       </c>
-      <c r="AL7" t="s"/>
-      <c r="AM7" t="s"/>
-      <c r="AN7" t="s"/>
-      <c r="AO7" t="s"/>
-      <c r="AP7" t="s"/>
-      <c r="AQ7" t="s"/>
-      <c r="AR7" t="s"/>
-      <c r="AS7" t="s"/>
-      <c r="AT7" t="s"/>
-      <c r="AU7" t="s"/>
-      <c r="AV7" t="s"/>
-      <c r="AW7" t="s"/>
-      <c r="AX7" t="s"/>
-      <c r="AY7" t="s"/>
-      <c r="AZ7" t="s"/>
-      <c r="BA7" t="n">
-        <v>172533.01919478</v>
+      <c r="AL7" t="n">
+        <v>156043.89081812</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>236661.6194081</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>480721.08789774</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>130977.29505227</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>85769.64777231</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>146908.42431032</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>123160.30680464</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>194888.45057991</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>406688.86085223</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>588519.26680616</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>354218.59220789</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>97295.40005593</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>94970.60344529001</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>300336.49123626</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>231902.93172531</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>1027</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>76682.99980946</v>
       </c>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
+      <c r="C8" t="n">
+        <v>96444.79797633</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22607.96631825</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19784.08092702</v>
+      </c>
+      <c r="F8" t="n">
+        <v>53275.58072876</v>
+      </c>
+      <c r="G8" t="n">
+        <v>44526.38411156</v>
+      </c>
+      <c r="H8" t="n">
+        <v>83463.72796905</v>
+      </c>
+      <c r="I8" t="n">
+        <v>82116.42630286</v>
+      </c>
       <c r="J8" t="n">
         <v>55673.44783208</v>
       </c>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
-      <c r="Z8" t="s"/>
-      <c r="AA8" t="s"/>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
-      <c r="AD8" t="s"/>
-      <c r="AE8" t="s"/>
-      <c r="AF8" t="s"/>
-      <c r="AG8" t="s"/>
-      <c r="AH8" t="s"/>
-      <c r="AI8" t="s"/>
-      <c r="AJ8" t="s"/>
-      <c r="AK8" t="s"/>
-      <c r="AL8" t="s"/>
-      <c r="AM8" t="s"/>
-      <c r="AN8" t="s"/>
-      <c r="AO8" t="s"/>
-      <c r="AP8" t="s"/>
-      <c r="AQ8" t="s"/>
-      <c r="AR8" t="s"/>
-      <c r="AS8" t="s"/>
-      <c r="AT8" t="s"/>
-      <c r="AU8" t="s"/>
-      <c r="AV8" t="s"/>
-      <c r="AW8" t="s"/>
-      <c r="AX8" t="s"/>
-      <c r="AY8" t="s"/>
-      <c r="AZ8" t="s"/>
-      <c r="BA8" t="n">
-        <v>66178.22382077</v>
+      <c r="K8" t="n">
+        <v>71014.24895199</v>
+      </c>
+      <c r="L8" t="n">
+        <v>101621.85617958</v>
+      </c>
+      <c r="M8" t="n">
+        <v>152274.50236855</v>
+      </c>
+      <c r="N8" t="n">
+        <v>89481.63525638</v>
+      </c>
+      <c r="O8" t="n">
+        <v>146726.26240507</v>
+      </c>
+      <c r="P8" t="n">
+        <v>77760.75702436001</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>205367.85594272</v>
+      </c>
+      <c r="R8" t="n">
+        <v>192004.06741455</v>
+      </c>
+      <c r="S8" t="n">
+        <v>176625.49382103</v>
+      </c>
+      <c r="T8" t="n">
+        <v>63847.00640195</v>
+      </c>
+      <c r="U8" t="n">
+        <v>99473.13836077</v>
+      </c>
+      <c r="V8" t="n">
+        <v>182297.37140063</v>
+      </c>
+      <c r="W8" t="n">
+        <v>124965.44806477</v>
+      </c>
+      <c r="X8" t="n">
+        <v>145747.6242869</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>149411.32475919</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>71266.42836607</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>107008.70071282</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>79050.56835263</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>201226.77698311</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>173099.44380351</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>127404.9142653</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>75654.00985007999</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>41065.83616308</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>201243.9503227</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>189242.38487945</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>70239.72820344</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>75194.28498378</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>101052.71321477</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>211530.62433852</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>231112.81034582</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>130298.36733607</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>75460.12886154</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>103049.20070133</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>113894.52005136</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>194888.45057991</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>176572.55431774</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>82765.70169572999</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>243888.75320325</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>75904.24485767</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>47311.9175594</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>216580.04764321</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>118584.02132412</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>1284</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>65959.42202396999</v>
       </c>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
+      <c r="C9" t="n">
+        <v>35630.12130245</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12743.86606652</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14027.31035965</v>
+      </c>
+      <c r="F9" t="n">
+        <v>47746.25872285</v>
+      </c>
+      <c r="G9" t="n">
+        <v>40710.30909213</v>
+      </c>
+      <c r="H9" t="n">
+        <v>39749.48955492</v>
+      </c>
+      <c r="I9" t="n">
+        <v>42590.51169199</v>
+      </c>
       <c r="J9" t="n">
         <v>51694.24714031</v>
       </c>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="s"/>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
-      <c r="Z9" t="s"/>
-      <c r="AA9" t="s"/>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
-      <c r="AD9" t="s"/>
-      <c r="AE9" t="s"/>
-      <c r="AF9" t="s"/>
-      <c r="AG9" t="s"/>
-      <c r="AH9" t="s"/>
-      <c r="AI9" t="s"/>
-      <c r="AJ9" t="s"/>
-      <c r="AK9" t="s"/>
-      <c r="AL9" t="s"/>
-      <c r="AM9" t="s"/>
-      <c r="AN9" t="s"/>
-      <c r="AO9" t="s"/>
-      <c r="AP9" t="s"/>
-      <c r="AQ9" t="s"/>
-      <c r="AR9" t="s"/>
-      <c r="AS9" t="s"/>
-      <c r="AT9" t="s"/>
-      <c r="AU9" t="s"/>
-      <c r="AV9" t="s"/>
-      <c r="AW9" t="s"/>
-      <c r="AX9" t="s"/>
-      <c r="AY9" t="s"/>
-      <c r="AZ9" t="s"/>
-      <c r="BA9" t="n">
-        <v>58826.83458214</v>
+      <c r="K9" t="n">
+        <v>61855.4038668</v>
+      </c>
+      <c r="L9" t="n">
+        <v>71333.48957893001</v>
+      </c>
+      <c r="M9" t="n">
+        <v>146251.04715729</v>
+      </c>
+      <c r="N9" t="n">
+        <v>67881.07196594001</v>
+      </c>
+      <c r="O9" t="n">
+        <v>111860.94528126</v>
+      </c>
+      <c r="P9" t="n">
+        <v>53563.8413516</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>203233.53490159</v>
+      </c>
+      <c r="R9" t="n">
+        <v>84597.90862505</v>
+      </c>
+      <c r="S9" t="n">
+        <v>159544.76342164</v>
+      </c>
+      <c r="T9" t="n">
+        <v>47702.653538</v>
+      </c>
+      <c r="U9" t="n">
+        <v>76775.27347992999</v>
+      </c>
+      <c r="V9" t="n">
+        <v>84293.56573502001</v>
+      </c>
+      <c r="W9" t="n">
+        <v>116376.91454628</v>
+      </c>
+      <c r="X9" t="n">
+        <v>72747.50431809999</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>149411.32475919</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>45458.10568395</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>52726.99227379</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>61494.08543548</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>89133.79839638001</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>129429.08255239</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>101228.71866025</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>65012.28581311</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>40941.87730048</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>162990.56735757</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>129081.90401809</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>38922.99601148</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51198.6323803</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>92772.00011795</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>89892.76268394</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>151118.66012871</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>82719.82642329</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>52813.97002483</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>56970.44266571</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>87172.57859016</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>75288.11086833999</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>147486.40024082</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>82675.35213658</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>136629.42888968</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>25197.28609942</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>46884.17451562</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>146298.96707614</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>81996.39569652001</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1541</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>27373.39538146</v>
       </c>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
+      <c r="C10" t="n">
+        <v>16842.31040065</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5992.79078326</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9643.696290059999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>47746.25872285</v>
+      </c>
+      <c r="G10" t="n">
+        <v>32795.41006806</v>
+      </c>
+      <c r="H10" t="n">
+        <v>22516.6407417</v>
+      </c>
+      <c r="I10" t="n">
+        <v>24521.54045002</v>
+      </c>
       <c r="J10" t="n">
         <v>47969.62484788</v>
       </c>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
-      <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
-      <c r="V10" t="s"/>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
-      <c r="Z10" t="s"/>
-      <c r="AA10" t="s"/>
-      <c r="AB10" t="s"/>
-      <c r="AC10" t="s"/>
-      <c r="AD10" t="s"/>
-      <c r="AE10" t="s"/>
-      <c r="AF10" t="s"/>
-      <c r="AG10" t="s"/>
-      <c r="AH10" t="s"/>
-      <c r="AI10" t="s"/>
-      <c r="AJ10" t="s"/>
-      <c r="AK10" t="s"/>
-      <c r="AL10" t="s"/>
-      <c r="AM10" t="s"/>
-      <c r="AN10" t="s"/>
-      <c r="AO10" t="s"/>
-      <c r="AP10" t="s"/>
-      <c r="AQ10" t="s"/>
-      <c r="AR10" t="s"/>
-      <c r="AS10" t="s"/>
-      <c r="AT10" t="s"/>
-      <c r="AU10" t="s"/>
-      <c r="AV10" t="s"/>
-      <c r="AW10" t="s"/>
-      <c r="AX10" t="s"/>
-      <c r="AY10" t="s"/>
-      <c r="AZ10" t="s"/>
-      <c r="BA10" t="n">
-        <v>37671.51011467</v>
+      <c r="K10" t="n">
+        <v>31738.30946889</v>
+      </c>
+      <c r="L10" t="n">
+        <v>66513.83386206</v>
+      </c>
+      <c r="M10" t="n">
+        <v>72204.0937867</v>
+      </c>
+      <c r="N10" t="n">
+        <v>63699.84011024</v>
+      </c>
+      <c r="O10" t="n">
+        <v>63679.85085692</v>
+      </c>
+      <c r="P10" t="n">
+        <v>47482.98449165</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>86796.63307061</v>
+      </c>
+      <c r="R10" t="n">
+        <v>84597.90862505</v>
+      </c>
+      <c r="S10" t="n">
+        <v>28998.1862449</v>
+      </c>
+      <c r="T10" t="n">
+        <v>41747.67126865</v>
+      </c>
+      <c r="U10" t="n">
+        <v>35594.59175602</v>
+      </c>
+      <c r="V10" t="n">
+        <v>48896.69705918</v>
+      </c>
+      <c r="W10" t="n">
+        <v>106805.27753176</v>
+      </c>
+      <c r="X10" t="n">
+        <v>69027.76452249</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>91885.06295073</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>23855.78983079</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>52726.99227379</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>47731.23697022</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>43306.67667125</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>114232.95951594</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>95480.45324893</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41837.90355417</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>27507.69843458</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>28876.68957538</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>59972.51075614</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>35655.69049435</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>18235.11102791</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>61416.87030144</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>88232.91257681001</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>124138.62869632</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>74337.27353573999</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>52182.65165518</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>28624.38996987</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>32956.10512931</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>38969.3248713</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>141831.08190425</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>48857.27028805</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>102624.47050907</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>19541.38752334</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>15711.68556975</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>40123.33202237</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>52680.74940396</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>1798</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>13777.38355137</v>
       </c>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
+      <c r="C11" t="n">
+        <v>16842.31040065</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3463.24010692</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9643.696290059999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>38926.34971546</v>
+      </c>
+      <c r="G11" t="n">
+        <v>32795.41006806</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20676.69812007</v>
+      </c>
+      <c r="I11" t="n">
+        <v>24514.02196116</v>
+      </c>
       <c r="J11" t="n">
         <v>47180.10017512</v>
       </c>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
-      <c r="V11" t="s"/>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
-      <c r="Z11" t="s"/>
-      <c r="AA11" t="s"/>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
-      <c r="AD11" t="s"/>
-      <c r="AE11" t="s"/>
-      <c r="AF11" t="s"/>
-      <c r="AG11" t="s"/>
-      <c r="AH11" t="s"/>
-      <c r="AI11" t="s"/>
-      <c r="AJ11" t="s"/>
-      <c r="AK11" t="s"/>
-      <c r="AL11" t="s"/>
-      <c r="AM11" t="s"/>
-      <c r="AN11" t="s"/>
-      <c r="AO11" t="s"/>
-      <c r="AP11" t="s"/>
-      <c r="AQ11" t="s"/>
-      <c r="AR11" t="s"/>
-      <c r="AS11" t="s"/>
-      <c r="AT11" t="s"/>
-      <c r="AU11" t="s"/>
-      <c r="AV11" t="s"/>
-      <c r="AW11" t="s"/>
-      <c r="AX11" t="s"/>
-      <c r="AY11" t="s"/>
-      <c r="AZ11" t="s"/>
-      <c r="BA11" t="n">
-        <v>30478.74186324</v>
+      <c r="K11" t="n">
+        <v>20890.71023369</v>
+      </c>
+      <c r="L11" t="n">
+        <v>31217.78181221</v>
+      </c>
+      <c r="M11" t="n">
+        <v>13817.03037579</v>
+      </c>
+      <c r="N11" t="n">
+        <v>61112.34717392</v>
+      </c>
+      <c r="O11" t="n">
+        <v>50704.60791146</v>
+      </c>
+      <c r="P11" t="n">
+        <v>14707.24049844</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>21238.01146643</v>
+      </c>
+      <c r="R11" t="n">
+        <v>35922.34533036</v>
+      </c>
+      <c r="S11" t="n">
+        <v>19449.65653992</v>
+      </c>
+      <c r="T11" t="n">
+        <v>24509.58608003</v>
+      </c>
+      <c r="U11" t="n">
+        <v>35594.59175602</v>
+      </c>
+      <c r="V11" t="n">
+        <v>30377.67331101</v>
+      </c>
+      <c r="W11" t="n">
+        <v>93526.39571187001</v>
+      </c>
+      <c r="X11" t="n">
+        <v>38748.1167237</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>40643.10682812</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>11649.24050994</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>49790.46400453</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>39021.51130645</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>42592.3255115</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>48797.65512763</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>64072.55122089</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>26882.63567842</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>26908.23747494</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>25651.57067399</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>45280.66039581</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>26756.90167023</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>18235.11102791</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>30114.82967118</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>24710.59585112</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>95633.00321845</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>34165.55564757</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>26058.31651149</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>20403.35954945</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>31937.4302133</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>29065.16375967</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>69893.15648305</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>48857.27028805</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>70136.32312376</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>10780.19098432</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>15300.90912611</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>18067.61370764</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>33820.81989758</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>2054</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>13669.987847</v>
       </c>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
+      <c r="C12" t="n">
+        <v>13493.89277991</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3393.48020612</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9623.78886493</v>
+      </c>
+      <c r="F12" t="n">
+        <v>18835.50113717</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14053.23314503</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3635.19085555</v>
+      </c>
+      <c r="I12" t="n">
+        <v>24514.02196116</v>
+      </c>
       <c r="J12" t="n">
         <v>6224.41570402</v>
       </c>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-      <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
-      <c r="V12" t="s"/>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
-      <c r="Z12" t="s"/>
-      <c r="AA12" t="s"/>
-      <c r="AB12" t="s"/>
-      <c r="AC12" t="s"/>
-      <c r="AD12" t="s"/>
-      <c r="AE12" t="s"/>
-      <c r="AF12" t="s"/>
-      <c r="AG12" t="s"/>
-      <c r="AH12" t="s"/>
-      <c r="AI12" t="s"/>
-      <c r="AJ12" t="s"/>
-      <c r="AK12" t="s"/>
-      <c r="AL12" t="s"/>
-      <c r="AM12" t="s"/>
-      <c r="AN12" t="s"/>
-      <c r="AO12" t="s"/>
-      <c r="AP12" t="s"/>
-      <c r="AQ12" t="s"/>
-      <c r="AR12" t="s"/>
-      <c r="AS12" t="s"/>
-      <c r="AT12" t="s"/>
-      <c r="AU12" t="s"/>
-      <c r="AV12" t="s"/>
-      <c r="AW12" t="s"/>
-      <c r="AX12" t="s"/>
-      <c r="AY12" t="s"/>
-      <c r="AZ12" t="s"/>
-      <c r="BA12" t="n">
-        <v>9947.201775510001</v>
+      <c r="K12" t="n">
+        <v>20089.620751</v>
+      </c>
+      <c r="L12" t="n">
+        <v>31078.57139838</v>
+      </c>
+      <c r="M12" t="n">
+        <v>13817.03037579</v>
+      </c>
+      <c r="N12" t="n">
+        <v>30808.46654855</v>
+      </c>
+      <c r="O12" t="n">
+        <v>46952.78240202</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10957.1053395</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>17737.8234363</v>
+      </c>
+      <c r="R12" t="n">
+        <v>27546.76332041</v>
+      </c>
+      <c r="S12" t="n">
+        <v>16449.56082218</v>
+      </c>
+      <c r="T12" t="n">
+        <v>13811.42112476</v>
+      </c>
+      <c r="U12" t="n">
+        <v>32562.6549</v>
+      </c>
+      <c r="V12" t="n">
+        <v>20450.25729032</v>
+      </c>
+      <c r="W12" t="n">
+        <v>53615.18930485</v>
+      </c>
+      <c r="X12" t="n">
+        <v>24214.87289198</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>37290.57206079</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>11110.31996534</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>26994.83468872</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>20838.75659908</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>35494.78870455</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>25348.63450147</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>56002.15078284</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>19556.55503515</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>26908.23747494</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>25549.27117197</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>25729.43855756</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>20443.66395091</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>18014.01780208</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>27092.64069916</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>24710.59585112</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>51315.68594147</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>12211.35835077</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>15235.55654085</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>6414.72599398</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>25111.94315564</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>27713.88823497</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>55437.55027631</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>36527.26716701</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>31191.66403094</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6191.48620719</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>6925.47424841</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>18017.41686223</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>23218.28254525</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>2311</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>7047.06468422</v>
       </c>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
+      <c r="C13" t="n">
+        <v>10554.48550018</v>
+      </c>
+      <c r="D13" t="n">
+        <v>688.81103752</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9363.93401798</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8777.45765144</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14052.96852759</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3127.22611902</v>
+      </c>
+      <c r="I13" t="n">
+        <v>21886.24532345</v>
+      </c>
       <c r="J13" t="n">
         <v>5862.64317258</v>
       </c>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
-      <c r="AD13" t="s"/>
-      <c r="AE13" t="s"/>
-      <c r="AF13" t="s"/>
-      <c r="AG13" t="s"/>
-      <c r="AH13" t="s"/>
-      <c r="AI13" t="s"/>
-      <c r="AJ13" t="s"/>
-      <c r="AK13" t="s"/>
-      <c r="AL13" t="s"/>
-      <c r="AM13" t="s"/>
-      <c r="AN13" t="s"/>
-      <c r="AO13" t="s"/>
-      <c r="AP13" t="s"/>
-      <c r="AQ13" t="s"/>
-      <c r="AR13" t="s"/>
-      <c r="AS13" t="s"/>
-      <c r="AT13" t="s"/>
-      <c r="AU13" t="s"/>
-      <c r="AV13" t="s"/>
-      <c r="AW13" t="s"/>
-      <c r="AX13" t="s"/>
-      <c r="AY13" t="s"/>
-      <c r="AZ13" t="s"/>
-      <c r="BA13" t="n">
-        <v>6454.8539284</v>
+      <c r="K13" t="n">
+        <v>19640.07348124</v>
+      </c>
+      <c r="L13" t="n">
+        <v>16274.01742874</v>
+      </c>
+      <c r="M13" t="n">
+        <v>13817.03037579</v>
+      </c>
+      <c r="N13" t="n">
+        <v>30789.15826494</v>
+      </c>
+      <c r="O13" t="n">
+        <v>45957.93847016</v>
+      </c>
+      <c r="P13" t="n">
+        <v>7697.71995183</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>13865.92229085</v>
+      </c>
+      <c r="R13" t="n">
+        <v>27546.76332041</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8302.25989492</v>
+      </c>
+      <c r="T13" t="n">
+        <v>10376.01197459</v>
+      </c>
+      <c r="U13" t="n">
+        <v>15299.77201081</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6567.12734003</v>
+      </c>
+      <c r="W13" t="n">
+        <v>51883.35611063</v>
+      </c>
+      <c r="X13" t="n">
+        <v>12273.22932521</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>25260.33602128</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>10806.87152435</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>14647.20314197</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>20783.61576314</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>18906.96601055</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>25333.68979846</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13488.20778819</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8634.91861441</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>25552.72478012</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23860.59751898</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>10968.38875431</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>16347.99264282</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>18000.08018084</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>25399.2076803</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>14716.68467619</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>45325.77604527</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10581.60669467</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>10678.89189917</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>6363.75355176</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>13554.92676818</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>26725.68007571</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>40438.4152444</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>5922.41413014</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>10241.36909318</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6191.48620719</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>4433.26552048</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>12914.91840516</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>16554.62409611</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>2568</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>6749.64781796</v>
       </c>
-      <c r="C14" t="s"/>
-      <c r="D14" t="s"/>
-      <c r="E14" t="s"/>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
+      <c r="C14" t="n">
+        <v>6181.00741232</v>
+      </c>
+      <c r="D14" t="n">
+        <v>533.21744387</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8270.346801129999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7500.27786291</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7533.01991132</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2980.56065931</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12915.85660496</v>
+      </c>
       <c r="J14" t="n">
         <v>3921.60771286</v>
       </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
-      <c r="Z14" t="s"/>
-      <c r="AA14" t="s"/>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
-      <c r="AD14" t="s"/>
-      <c r="AE14" t="s"/>
-      <c r="AF14" t="s"/>
-      <c r="AG14" t="s"/>
-      <c r="AH14" t="s"/>
-      <c r="AI14" t="s"/>
-      <c r="AJ14" t="s"/>
-      <c r="AK14" t="s"/>
-      <c r="AL14" t="s"/>
-      <c r="AM14" t="s"/>
-      <c r="AN14" t="s"/>
-      <c r="AO14" t="s"/>
-      <c r="AP14" t="s"/>
-      <c r="AQ14" t="s"/>
-      <c r="AR14" t="s"/>
-      <c r="AS14" t="s"/>
-      <c r="AT14" t="s"/>
-      <c r="AU14" t="s"/>
-      <c r="AV14" t="s"/>
-      <c r="AW14" t="s"/>
-      <c r="AX14" t="s"/>
-      <c r="AY14" t="s"/>
-      <c r="AZ14" t="s"/>
-      <c r="BA14" t="n">
-        <v>5335.62776541</v>
+      <c r="K14" t="n">
+        <v>14648.54079731</v>
+      </c>
+      <c r="L14" t="n">
+        <v>12030.0637057</v>
+      </c>
+      <c r="M14" t="n">
+        <v>11260.79267271</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9347.00443662</v>
+      </c>
+      <c r="O14" t="n">
+        <v>9934.16672754</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7548.83449763</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>13384.02768594</v>
+      </c>
+      <c r="R14" t="n">
+        <v>14951.34953505</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1486.39837106</v>
+      </c>
+      <c r="T14" t="n">
+        <v>10070.31630481</v>
+      </c>
+      <c r="U14" t="n">
+        <v>14736.46096672</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6567.12734003</v>
+      </c>
+      <c r="W14" t="n">
+        <v>20579.94949398</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8845.921329139999</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>20583.95761861</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>7337.66867399</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>14647.20314197</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>15229.0160298</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11910.24331703</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>25333.68979846</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13488.20778819</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>6513.59998676</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>18133.5364116</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>17956.25291785</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9761.631348860001</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15355.81026443</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>16381.59000614</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>16163.42289937</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>13932.25309493</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>13224.57122121</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>10581.60669467</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>6016.19790545</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>6359.59757786</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>7443.45433226</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>25781.67380604</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>38227.91037036</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>3421.19651893</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>10211.01198989</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4544.40631497</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>1102.98685963</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>9017.761089649999</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>11412.7390814</v>
       </c>
     </row>
   </sheetData>
